--- a/data/trans_dic/P02E$ssociales-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P02E$ssociales-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -690,22 +691,22 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,59</t>
+          <t>0,0; 11,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,91</t>
+          <t>0,0; 15,98</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,61</t>
+          <t>0,0; 9,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,97</t>
+          <t>0,0; 4,02</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -715,17 +716,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,53</t>
+          <t>0,0; 5,41</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,25</t>
+          <t>0,0; 4,86</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,53</t>
+          <t>0,0; 5,73</t>
         </is>
       </c>
     </row>
@@ -800,12 +801,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,54</t>
+          <t>0,0; 2,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,56</t>
+          <t>0,0; 3,98</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -815,7 +816,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,24; 2,09</t>
+          <t>0,24; 2,17</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -830,12 +831,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,3; 1,87</t>
+          <t>0,17; 1,56</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,29</t>
+          <t>0,0; 1,42</t>
         </is>
       </c>
     </row>
@@ -910,42 +911,42 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,55</t>
+          <t>0,0; 1,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,83</t>
+          <t>0,0; 1,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,33</t>
+          <t>0,0; 1,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,22</t>
+          <t>0,0; 1,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,99</t>
+          <t>0,0; 1,29</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,97</t>
+          <t>0,0; 1,07</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,09; 0,97</t>
+          <t>0,1; 0,98</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,0</t>
+          <t>0,0; 0,94</t>
         </is>
       </c>
     </row>
@@ -1020,7 +1021,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,42; 3,92</t>
+          <t>0,43; 3,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1030,32 +1031,32 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,04</t>
+          <t>0,0; 5,12</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,99</t>
+          <t>0,0; 2,33</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,5; 4,31</t>
+          <t>0,5; 4,33</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,66</t>
+          <t>0,0; 3,12</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,23; 2,13</t>
+          <t>0,23; 2,03</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,27; 2,55</t>
+          <t>0,06; 2,34</t>
         </is>
       </c>
     </row>
@@ -1130,12 +1131,12 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,23; 19,43</t>
+          <t>2,1; 19,37</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,21</t>
+          <t>0,0; 16,53</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1145,12 +1146,12 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,08; 9,98</t>
+          <t>1,1; 9,79</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,88; 16,67</t>
+          <t>1,96; 17,33</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1160,12 +1161,12 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,65; 10,55</t>
+          <t>2,66; 10,98</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,54; 13,18</t>
+          <t>3,16; 13,68</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 44,07</t>
+          <t>0,0; 35,44</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,55; 38,4</t>
+          <t>4,71; 38,9</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,1</t>
+          <t>0,0; 22,67</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,59</t>
+          <t>0,0; 9,66</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,0; 16,86</t>
+          <t>2,0; 15,92</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,64</t>
+          <t>0,0; 14,12</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,45; 11,42</t>
+          <t>1,43; 12,23</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4,41; 18,92</t>
+          <t>4,37; 18,51</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,23</t>
+          <t>0,0; 10,93</t>
         </is>
       </c>
     </row>
@@ -1350,12 +1351,12 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 30,27</t>
+          <t>0,0; 35,87</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 47,49</t>
+          <t>0,0; 49,78</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1365,12 +1366,12 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,03; 26,34</t>
+          <t>5,12; 26,91</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,0</t>
+          <t>0,0; 17,94</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1380,12 +1381,12 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,0; 23,4</t>
+          <t>5,25; 21,69</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,5; 16,12</t>
+          <t>1,47; 17,29</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,99</t>
+          <t>0,0; 0,92</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1,0; 2,63</t>
+          <t>0,94; 2,54</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,66; 2,51</t>
+          <t>0,69; 2,46</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,1</t>
+          <t>0,19; 1,07</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,79; 1,92</t>
+          <t>0,81; 1,96</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,45; 1,67</t>
+          <t>0,47; 1,7</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0,17; 0,83</t>
+          <t>0,18; 0,84</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>1,02; 1,97</t>
+          <t>1,03; 1,99</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0,7; 1,75</t>
+          <t>0,68; 1,66</t>
         </is>
       </c>
     </row>
@@ -1523,4 +1524,1455 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con ayuda al cuidado por parte de, al menos, una persona externa que es profesional de los servicios Sociales o sanitarios</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>985</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>2176</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>881</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>992</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>881</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>1977</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>2176</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1909</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4915</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6511</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4672</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4082</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1872</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4364</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6930</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 7479</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>924</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1936</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>3096</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>4020</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1936</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2000</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5490</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6906</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2026</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>927; 8468</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1871</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2022</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>1015; 9454</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6626</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>1820</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>1034</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>1048</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>940</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>1048</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>3814</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>1974</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1967</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5612</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5759</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5269</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6482</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5251</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 7118</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>999; 9655</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6792</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>3248</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1014</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>2950</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>4262</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>2950</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2035</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>988; 8975</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2104</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>0; 6182</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 6105</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>903; 7898</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>0; 7219</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1123; 9945</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>208; 7939</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>4074</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>2132</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>4243</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>4350</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>8317</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>6482</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1891</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1034; 9517</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 6653</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1944</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1105; 9843</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1115; 9842</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1961</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>3980; 16441</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>3066; 13269</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>1859</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>4164</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>946</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>2936</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>954</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>2756</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>7100</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>1900</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5023</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>1050; 8673</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4817</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4532</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>944; 7528</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5146</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>874; 7473</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>3039; 12875</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0; 6308</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>1027</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>2215</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>5399</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>1342</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>6426</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>3557</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1706</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>0; 5362</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>0; 6199</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2103</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>2109; 11096</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>0; 8053</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1988</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>2951; 12185</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>845; 9916</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>1859</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>16241</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>10440</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>4837</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>19675</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>10536</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>6696</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>35916</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>20975</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>0; 5789</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>9290; 24976</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>5209; 18585</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>1878; 10719</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>12289; 29755</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>5172; 18929</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>2909; 13638</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>25836; 49672</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>12635; 31076</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>